--- a/medicine/Enfance/Mousaki/Mousaki.xlsx
+++ b/medicine/Enfance/Mousaki/Mousaki.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Mousaki (こむぎいろの天使 雀と少年, Komugīro no tenshi: Suzume to shōnen?) est un film japonais pour enfants réalisé par Toshio Gotō (ja) et sorti en 1978.
 </t>
@@ -511,7 +523,9 @@
           <t>Synopsis</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Un petit garçon turbulent, Sabu, trouve des œufs d'oiseaux. Un serpent les mange mais Sabu parvient à sauver le dernier. Il va alors s'occuper de l'oisillon qui a éclos, un moineau friquet, avec l'aide d'un autre enfant, Ken'ichi, en cachette des adultes.
 </t>
@@ -542,9 +556,11 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Titre français : Mousaki[1]
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Titre français : Mousaki
 Titre original : こむぎいろの天使 雀と少年 (Komugīro no tenshi: Suzume to shōnen?)
 Réalisation : Toshio Gotō (ja)
 Scénario : Hideka Nagasaka (ja)
@@ -552,10 +568,10 @@
 Musique : Yoshiaki Ogawa (ja)
 Pays de production :  Japon
 Langue originale : japonais
-Durée : 75 minutes[2]
+Durée : 75 minutes
 Dates de sortie :
-Japon : 24 décembre 1978[2]
-France : 30 avril 1980[3]</t>
+Japon : 24 décembre 1978
+France : 30 avril 1980</t>
         </is>
       </c>
     </row>
@@ -583,7 +599,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Yōji Matsuda (ja) : Sabu
 Tsukasa Nakagoshi : Ken'ichi
